--- a/Analyzed/try6/data_2018.xlsx
+++ b/Analyzed/try6/data_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>66.23765485298911</v>
       </c>
       <c r="N2">
-        <v>-140.224</v>
+        <v>379.904</v>
       </c>
       <c r="O2">
-        <v>1140.67</v>
+        <v>-259.33</v>
       </c>
       <c r="P2">
-        <v>537.3085752000001</v>
+        <v>427.0010128424876</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -571,28 +576,31 @@
         <v>4</v>
       </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>8</v>
       </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>67.61991461517884</v>
       </c>
       <c r="N3">
-        <v>-140.168</v>
+        <v>305.816</v>
       </c>
       <c r="O3">
-        <v>1192.39</v>
+        <v>-207.61</v>
       </c>
       <c r="P3">
-        <v>530.6892336</v>
+        <v>422.0893093331765</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -662,28 +670,31 @@
         <v>2</v>
       </c>
       <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
         <v>8</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>5</v>
-      </c>
-      <c r="Z3">
-        <v>7</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>7</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>65.47645277783643</v>
       </c>
       <c r="N4">
-        <v>120.96</v>
+        <v>439.3200000000001</v>
       </c>
       <c r="O4">
-        <v>1180.08</v>
+        <v>-169.92</v>
       </c>
       <c r="P4">
-        <v>483.368904</v>
+        <v>367.3633244676485</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -756,13 +767,13 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <v>6</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -771,10 +782,13 @@
         <v>6</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>6</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>67.38161090975822</v>
       </c>
       <c r="N5">
-        <v>23.04400000000001</v>
+        <v>375.984</v>
       </c>
       <c r="O5">
-        <v>1114.62</v>
+        <v>-135.38</v>
       </c>
       <c r="P5">
-        <v>498.8429712</v>
+        <v>379.5176722934393</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>4</v>
@@ -856,16 +870,19 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>66.73622260743772</v>
       </c>
       <c r="N6">
-        <v>114.38</v>
+        <v>279.496</v>
       </c>
       <c r="O6">
-        <v>1060.46</v>
+        <v>-139.54</v>
       </c>
       <c r="P6">
-        <v>506.3556672</v>
+        <v>388.4157652473596</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>4</v>
@@ -953,10 +970,13 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>69.09180171727232</v>
       </c>
       <c r="N7">
-        <v>85.092</v>
+        <v>385.728</v>
       </c>
       <c r="O7">
-        <v>1118.43</v>
+        <v>-181.57</v>
       </c>
       <c r="P7">
-        <v>503.6599224</v>
+        <v>387.3458907641892</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1026,27 +1046,30 @@
         <v>3</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>61.00740456057102</v>
       </c>
       <c r="N8">
-        <v>72.29600000000002</v>
+        <v>298.424</v>
       </c>
       <c r="O8">
-        <v>1077.55</v>
+        <v>-172.45</v>
       </c>
       <c r="P8">
-        <v>525.3156504</v>
+        <v>406.3430072919317</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,28 +1140,31 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>4</v>
       </c>
       <c r="AB8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>62.84857266626491</v>
       </c>
       <c r="N9">
-        <v>-93.91200000000001</v>
+        <v>324.52</v>
       </c>
       <c r="O9">
-        <v>1167.19</v>
+        <v>-182.81</v>
       </c>
       <c r="P9">
-        <v>539.857008</v>
+        <v>424.926198767148</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,27 +1234,30 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
         <v>3</v>
       </c>
     </row>
@@ -1275,13 +1304,13 @@
         <v>58.71569497505569</v>
       </c>
       <c r="N10">
-        <v>109.76</v>
+        <v>332.1920000000001</v>
       </c>
       <c r="O10">
-        <v>1094.35</v>
+        <v>-155.65</v>
       </c>
       <c r="P10">
-        <v>512.9042904</v>
+        <v>389.5460521932318</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,28 +1328,31 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>4</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1366,13 +1398,13 @@
         <v>73.75618291820354</v>
       </c>
       <c r="N11">
-        <v>96.65600000000001</v>
+        <v>324.968</v>
       </c>
       <c r="O11">
-        <v>1098.17</v>
+        <v>-151.83</v>
       </c>
       <c r="P11">
-        <v>477.3381192</v>
+        <v>347.4347646139395</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,28 +1422,31 @@
         <v>9</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
